--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>useP2P</t>
   </si>
@@ -22,10 +22,31 @@
     <t>饱满度</t>
   </si>
   <si>
+    <t>平均加载延迟</t>
+  </si>
+  <si>
+    <t>最大加载延迟</t>
+  </si>
+  <si>
+    <t>平均转发延迟</t>
+  </si>
+  <si>
+    <t>最大转发延迟</t>
+  </si>
+  <si>
+    <t>平均解析延迟</t>
+  </si>
+  <si>
+    <t>最大解析延迟</t>
+  </si>
+  <si>
+    <t>P2P数据包平均解析延迟</t>
+  </si>
+  <si>
+    <t>P2P数据包最大解析延迟</t>
+  </si>
+  <si>
     <t>平均延迟</t>
-  </si>
-  <si>
-    <t>最大延迟</t>
   </si>
   <si>
     <t>服务器请求次数</t>
@@ -413,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,31 +483,52 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:21">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>97.46035665399249</v>
+        <v>99.31822492108024</v>
       </c>
       <c r="C2">
-        <v>3144.562935909896</v>
+        <v>436.864093019692</v>
       </c>
       <c r="D2">
-        <v>6654.752500355244</v>
+        <v>743.3499991893768</v>
       </c>
       <c r="E2">
-        <v>238</v>
+        <v>0.01548837090647498</v>
       </c>
       <c r="F2">
-        <v>476</v>
+        <v>0.3249999135732651</v>
       </c>
       <c r="G2">
-        <v>238</v>
+        <v>4905.494953531685</v>
       </c>
       <c r="H2">
-        <v>476</v>
+        <v>14985.975000076</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -495,42 +537,63 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>436.864093019692</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="M2">
-        <v>23.27916666666667</v>
+        <v>215</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>215</v>
+      </c>
+      <c r="O2">
+        <v>215</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>47.73333333333333</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:21">
       <c r="A3" t="b">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>91.4217988505747</v>
+        <v>99.36379600490609</v>
       </c>
       <c r="C3">
-        <v>8488.178983504709</v>
+        <v>521.380852525925</v>
       </c>
       <c r="D3">
-        <v>15404.57500051707</v>
+        <v>822.0349997282028</v>
       </c>
       <c r="E3">
-        <v>182</v>
+        <v>0.003410129880850216</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>0.06999913603067398</v>
       </c>
       <c r="G3">
-        <v>182</v>
+        <v>4995.078640513569</v>
       </c>
       <c r="H3">
-        <v>182</v>
+        <v>17146.10499981791</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -539,15 +602,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>521.380852525925</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="M3">
-        <v>6.791666666666667</v>
+        <v>217</v>
       </c>
       <c r="N3">
+        <v>217</v>
+      </c>
+      <c r="O3">
+        <v>217</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>47.81666666666667</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
     </row>

--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,6 +19,9 @@
     <t>useP2P</t>
   </si>
   <si>
+    <t>服务器请求率</t>
+  </si>
+  <si>
     <t>饱满度</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t>P2P数据包最大解析延迟</t>
-  </si>
-  <si>
-    <t>平均延迟</t>
   </si>
   <si>
     <t>服务器请求次数</t>
@@ -83,32 +83,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,9 +474,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,11 +726,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,17 +1065,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="20.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -510,64 +1155,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>99.31822492108024</v>
+        <v>0.951420289855072</v>
       </c>
       <c r="C2">
-        <v>436.864093019692</v>
+        <v>87.5383091503242</v>
       </c>
       <c r="D2">
-        <v>743.3499991893768</v>
+        <v>50873.26996746</v>
       </c>
       <c r="E2">
-        <v>0.01548837090647498</v>
+        <v>102034.869236111</v>
       </c>
       <c r="F2">
-        <v>0.3249999135732651</v>
+        <v>0.152177144927876</v>
       </c>
       <c r="G2">
-        <v>4905.494953531685</v>
+        <v>1.89430555764637</v>
       </c>
       <c r="H2">
-        <v>14985.975000076</v>
+        <v>43.6905307835355</v>
       </c>
       <c r="I2">
+        <v>245.24590277741</v>
+      </c>
+      <c r="J2">
+        <v>-54.4536558966807</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>436.864093019692</v>
-      </c>
       <c r="L2">
-        <v>215</v>
+        <v>240.666666666667</v>
       </c>
       <c r="M2">
-        <v>215</v>
+        <v>17328</v>
       </c>
       <c r="N2">
-        <v>215</v>
+        <v>240.666666666667</v>
       </c>
       <c r="O2">
-        <v>215</v>
+        <v>17328</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>217.819444444445</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>15683</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00964519462624871</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.472357698948835</v>
       </c>
       <c r="T2">
-        <v>47.73333333333333</v>
+        <v>31.3357638888889</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -575,46 +1220,46 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>99.36379600490609</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>521.380852525925</v>
+        <v>84.5716841516754</v>
       </c>
       <c r="D3">
-        <v>822.0349997282028</v>
+        <v>53954.6854937931</v>
       </c>
       <c r="E3">
-        <v>0.003410129880850216</v>
+        <v>106090.957027027</v>
       </c>
       <c r="F3">
-        <v>0.06999913603067398</v>
+        <v>0.00472305727020473</v>
       </c>
       <c r="G3">
-        <v>4995.078640513569</v>
+        <v>0.138243247849263</v>
       </c>
       <c r="H3">
-        <v>17146.10499981791</v>
+        <v>44.6460482605037</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>213.353851350301</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>521.380852525925</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>217</v>
+        <v>254.702702702703</v>
       </c>
       <c r="M3">
-        <v>217</v>
+        <v>18848</v>
       </c>
       <c r="N3">
-        <v>217</v>
+        <v>254.702702702703</v>
       </c>
       <c r="O3">
-        <v>217</v>
+        <v>18848</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -623,19 +1268,20 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.010592596951686</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0984189303904924</v>
       </c>
       <c r="T3">
-        <v>47.81666666666667</v>
+        <v>31.5679054054054</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -67,10 +67,10 @@
     <t>边缘服务器功率</t>
   </si>
   <si>
-    <t>加载后未使用</t>
-  </si>
-  <si>
-    <t>重复加载</t>
+    <t>加载后未使用%</t>
+  </si>
+  <si>
+    <t>重复加载%</t>
   </si>
   <si>
     <t>FPS</t>
@@ -510,64 +510,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9696567418926607</v>
+        <v>0.5809935205183585</v>
       </c>
       <c r="C2">
-        <v>70.88183421362322</v>
+        <v>97.1216856821885</v>
       </c>
       <c r="D2">
-        <v>18539.85427408058</v>
+        <v>3840.749016686575</v>
       </c>
       <c r="E2">
-        <v>54603.75714286053</v>
+        <v>20727.90829268242</v>
       </c>
       <c r="F2">
-        <v>0.3241195389799766</v>
+        <v>0.359337257558997</v>
       </c>
       <c r="G2">
-        <v>4.552380950941012</v>
+        <v>3.454634146465318</v>
       </c>
       <c r="H2">
-        <v>849.3464645582065</v>
+        <v>249.0122953658249</v>
       </c>
       <c r="I2">
-        <v>3562.320238087665</v>
+        <v>937.0075609747877</v>
       </c>
       <c r="J2">
-        <v>206.4217186936256</v>
+        <v>147.0832324322585</v>
       </c>
       <c r="K2">
-        <v>523.4380952353653</v>
+        <v>546.9067073165504</v>
       </c>
       <c r="L2">
-        <v>241.3333333333333</v>
+        <v>32.80487804878049</v>
       </c>
       <c r="M2">
-        <v>20272</v>
+        <v>1345</v>
       </c>
       <c r="N2">
-        <v>241.3333333333333</v>
+        <v>32.80487804878049</v>
       </c>
       <c r="O2">
-        <v>20272</v>
+        <v>1345</v>
       </c>
       <c r="P2">
-        <v>34.55952380952381</v>
+        <v>711.560975609756</v>
       </c>
       <c r="Q2">
-        <v>2903</v>
+        <v>29174</v>
       </c>
       <c r="R2">
-        <v>0.06285545023696683</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2716289104638619</v>
+        <v>0.9241456142075428</v>
       </c>
       <c r="T2">
-        <v>46.85367063492063</v>
+        <v>56.92520325203252</v>
       </c>
       <c r="U2">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21">

--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -83,32 +83,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,9 +474,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,11 +726,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,17 +1065,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="5" width="12.8181818181818"/>
+    <col min="6" max="6" width="16.1818181818182" customWidth="1"/>
+    <col min="7" max="9" width="12.8181818181818"/>
+    <col min="10" max="10" width="24.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="21.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="22.3636363636364" customWidth="1"/>
+    <col min="14" max="14" width="12.8181818181818"/>
+    <col min="15" max="15" width="9.09090909090909" customWidth="1"/>
+    <col min="16" max="16" width="17.3636363636364" customWidth="1"/>
+    <col min="19" max="19" width="11.7272727272727"/>
+    <col min="20" max="20" width="12.8181818181818"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -510,132 +1162,68 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5809935205183585</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>97.1216856821885</v>
+        <v>88.7945177717025</v>
       </c>
       <c r="D2">
-        <v>3840.749016686575</v>
+        <v>13537.6389081385</v>
       </c>
       <c r="E2">
-        <v>20727.90829268242</v>
+        <v>55079.0232673271</v>
       </c>
       <c r="F2">
-        <v>0.359337257558997</v>
+        <v>0.0305400304149169</v>
       </c>
       <c r="G2">
-        <v>3.454634146465318</v>
+        <v>0.171435644653612</v>
       </c>
       <c r="H2">
-        <v>249.0122953658249</v>
+        <v>18.7127881187134</v>
       </c>
       <c r="I2">
-        <v>937.0075609747877</v>
+        <v>170.988366336623</v>
       </c>
       <c r="J2">
-        <v>147.0832324322585</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>546.9067073165504</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.80487804878049</v>
+        <v>55.4653465346535</v>
       </c>
       <c r="M2">
-        <v>1345</v>
+        <v>5602</v>
       </c>
       <c r="N2">
-        <v>32.80487804878049</v>
+        <v>55.4653465346535</v>
       </c>
       <c r="O2">
-        <v>1345</v>
+        <v>5602</v>
       </c>
       <c r="P2">
-        <v>711.560975609756</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>29174</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9241456142075428</v>
+        <v>0.00535523027490182</v>
       </c>
       <c r="T2">
-        <v>56.92520325203252</v>
+        <v>59.4368811881188</v>
       </c>
       <c r="U2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -510,64 +510,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.967518406236466</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>66.53847522995943</v>
+        <v>90.34509546370981</v>
       </c>
       <c r="D2">
-        <v>11527.13576223712</v>
+        <v>157.9279682702287</v>
       </c>
       <c r="E2">
-        <v>21810.66052256578</v>
+        <v>399.2549999966286</v>
       </c>
       <c r="F2">
-        <v>0.2667383509141587</v>
+        <v>0.03771750266726168</v>
       </c>
       <c r="G2">
-        <v>1.717244660627261</v>
+        <v>3.760000006877817</v>
       </c>
       <c r="H2">
-        <v>264.8841985587006</v>
+        <v>635.5029222109339</v>
       </c>
       <c r="I2">
-        <v>659.3796199513657</v>
+        <v>1635.800000003655</v>
       </c>
       <c r="J2">
-        <v>120.9905100907796</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>205.0209026118661</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.15676959619952</v>
+        <v>977</v>
       </c>
       <c r="M2">
-        <v>13538</v>
+        <v>977</v>
       </c>
       <c r="N2">
-        <v>30.3562945368171</v>
+        <v>977</v>
       </c>
       <c r="O2">
-        <v>12780</v>
+        <v>977</v>
       </c>
       <c r="P2">
-        <v>7.128266033254157</v>
+        <v>977</v>
       </c>
       <c r="Q2">
-        <v>3001</v>
+        <v>977</v>
       </c>
       <c r="R2">
-        <v>0.02008770688923469</v>
+        <v>0.01637666325486182</v>
       </c>
       <c r="S2">
-        <v>0.5520562701983398</v>
+        <v>0.5</v>
       </c>
       <c r="T2">
-        <v>53.41710213776722</v>
+        <v>34.56666666666667</v>
       </c>
       <c r="U2">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21">

--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>useP2P</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>饱满度</t>
+  </si>
+  <si>
+    <t>平均响应延迟</t>
+  </si>
+  <si>
+    <t>最大响应延迟</t>
+  </si>
+  <si>
+    <t>预加载被使用</t>
+  </si>
+  <si>
+    <t>预加载未使用</t>
   </si>
   <si>
     <t>平均加载延迟</t>
@@ -434,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,111 +516,135 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>90.34509546370981</v>
-      </c>
-      <c r="D2">
-        <v>157.9279682702287</v>
-      </c>
-      <c r="E2">
-        <v>399.2549999966286</v>
-      </c>
-      <c r="F2">
-        <v>0.03771750266726168</v>
-      </c>
-      <c r="G2">
-        <v>3.760000006877817</v>
-      </c>
-      <c r="H2">
-        <v>635.5029222109339</v>
-      </c>
-      <c r="I2">
-        <v>1635.800000003655</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>977</v>
-      </c>
-      <c r="M2">
-        <v>977</v>
-      </c>
-      <c r="N2">
-        <v>977</v>
-      </c>
-      <c r="O2">
-        <v>977</v>
-      </c>
-      <c r="P2">
-        <v>977</v>
-      </c>
-      <c r="Q2">
-        <v>977</v>
-      </c>
-      <c r="R2">
-        <v>0.01637666325486182</v>
-      </c>
-      <c r="S2">
-        <v>0.5</v>
-      </c>
-      <c r="T2">
-        <v>34.56666666666667</v>
-      </c>
-      <c r="U2">
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>97.57429528795724</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>322.5693019479664</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1767.829999997048</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>614.1579177601511</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1106.780000001891</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.001876640475981674</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.03500000457279384</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2453.517484689472</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4552.324999996927</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -617,21 +653,33 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>52.41666666666666</v>
+      </c>
+      <c r="Y3">
         <v>1</v>
       </c>
     </row>

--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>75.14819661556956</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>47654.99765538946</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>85616.5782608709</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -552,22 +552,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>46687.14535676393</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>83687.89999999932</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3745187662512504</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.545652180789582</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>814.5969560940681</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3493.567391303429</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -576,34 +576,34 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>300.5652173913044</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>13826</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>299.8913043478261</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>13795</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>153.8260869565217</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>7076</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.06740878169449598</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.5351444588184562</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>50.275</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -614,37 +614,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>97.57429528795724</v>
+        <v>79.80519879316006</v>
       </c>
       <c r="D3">
-        <v>322.5693019479664</v>
+        <v>48078.83514205679</v>
       </c>
       <c r="E3">
-        <v>1767.829999997048</v>
+        <v>85388.71836734015</v>
       </c>
       <c r="F3">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>614.1579177601511</v>
+        <v>47393.97896135772</v>
       </c>
       <c r="I3">
-        <v>1106.780000001891</v>
+        <v>84076.09795917541</v>
       </c>
       <c r="J3">
-        <v>0.001876640475981674</v>
+        <v>0.0141537175348051</v>
       </c>
       <c r="K3">
-        <v>0.03500000457279384</v>
+        <v>0.2979591954309417</v>
       </c>
       <c r="L3">
-        <v>2453.517484689472</v>
+        <v>552.6463118957454</v>
       </c>
       <c r="M3">
-        <v>4552.324999996927</v>
+        <v>2359.44897959714</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -653,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1143</v>
+        <v>304.4489795918367</v>
       </c>
       <c r="Q3">
-        <v>1143</v>
+        <v>14918</v>
       </c>
       <c r="R3">
-        <v>1143</v>
+        <v>298.7551020408163</v>
       </c>
       <c r="S3">
-        <v>1143</v>
+        <v>14639</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.03211859172328598</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.3364300840221326</v>
       </c>
       <c r="X3">
-        <v>52.41666666666666</v>
+        <v>52.80357142857143</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
